--- a/present_orders.xlsx
+++ b/present_orders.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
   <si>
     <t>Order Name</t>
   </si>
@@ -158,6 +158,12 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>Deepak</t>
+  </si>
+  <si>
+    <t>Light something internet</t>
   </si>
 </sst>
 </file>
@@ -526,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,6 +782,14 @@
         <v>47</v>
       </c>
     </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/present_orders.xlsx
+++ b/present_orders.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
   <si>
     <t>Order Name</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>Light something internet</t>
+  </si>
+  <si>
+    <t>Amandeep</t>
   </si>
 </sst>
 </file>
@@ -532,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,6 +793,11 @@
         <v>49</v>
       </c>
     </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
